--- a/Result_Question_04.xlsx
+++ b/Result_Question_04.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="usa" sheetId="1" r:id="rId1"/>
+    <sheet name="fr" sheetId="2" r:id="rId2"/>
+    <sheet name="it" sheetId="3" r:id="rId3"/>
+    <sheet name="de" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -348,4 +351,40 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Result_Question_04.xlsx
+++ b/Result_Question_04.xlsx
@@ -56,6 +56,330 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="fragestellung_4_usa_bip_time_series.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="7315215" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="fragestellung_4_usa_time_series_analyse.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="190500"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="fragestellung_4_frankreich_bip_time_series.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="7315215" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="fragestellung_4_fr_time_series_analyse.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="190500"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="fragestellung_4_italien_bip_time_series.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="7315215" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="fragestellung_4_it_time_series_analyse.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="190500"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="fragestellung_4_deutschland_bip_time_series.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="7315215" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="fragestellung_4_de_time_series_analyse.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="190500"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,6 +674,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -362,6 +687,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -374,6 +700,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -386,5 +713,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Result_Question_04.xlsx
+++ b/Result_Question_04.xlsx
@@ -106,10 +106,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>365772</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7629</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -127,7 +127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534400" y="190500"/>
-          <a:ext cx="5852172" cy="4389129"/>
+          <a:ext cx="7315215" cy="4572009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -187,10 +187,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>365772</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7629</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -208,7 +208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534400" y="190500"/>
-          <a:ext cx="5852172" cy="4389129"/>
+          <a:ext cx="7315215" cy="4572009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -268,10 +268,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>365772</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7629</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -289,7 +289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534400" y="190500"/>
-          <a:ext cx="5852172" cy="4389129"/>
+          <a:ext cx="7315215" cy="4572009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -349,10 +349,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>365772</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7629</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -370,7 +370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534400" y="190500"/>
-          <a:ext cx="5852172" cy="4389129"/>
+          <a:ext cx="7315215" cy="4572009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Result_Question_04.xlsx
+++ b/Result_Question_04.xlsx
@@ -106,10 +106,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>15</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -127,7 +127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534400" y="190500"/>
-          <a:ext cx="7315215" cy="4572009"/>
+          <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -187,10 +187,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>15</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -208,7 +208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534400" y="190500"/>
-          <a:ext cx="7315215" cy="4572009"/>
+          <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -268,10 +268,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>15</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -289,7 +289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534400" y="190500"/>
-          <a:ext cx="7315215" cy="4572009"/>
+          <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
